--- a/03_Outputs/all/01_TablasDescriptivas/idx6_crecimiento_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx6_crecimiento_vr.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>3.886972065918754</v>
+        <v>2.516499308870938</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>2.371916019860472</v>
+        <v>1.689432634385394</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.668002897965324</v>
+        <v>1.210756087931079</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>1.544973363241016</v>
+        <v>1.006134217277292</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>1.2229420348823</v>
+        <v>0.919245371472592</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1.039453104721281</v>
+        <v>0.7579173073172567</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.9564797929219763</v>
+        <v>0.5687935708808259</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.895459768191305</v>
+        <v>0.3312215018646288</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.742923271805268</v>
+        <v>5.413121296855191E-30</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -544,14 +544,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>cumulative variance</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.6316730772515229</v>
+        <v>2.516499308870938</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -562,14 +562,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>cumulative variance</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.4589920931895178</v>
+        <v>4.205931943256332</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>cumulative variance</t>
         </is>
       </c>
       <c r="B13">
-        <v>0.2721087255418607</v>
+        <v>5.416688031187411</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -598,14 +598,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>cumulative variance</t>
         </is>
       </c>
       <c r="B14">
-        <v>0.1948591254709557</v>
+        <v>6.422822248464703</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -616,14 +616,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>cumulative variance</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.1132446590384567</v>
+        <v>7.342067619937295</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -634,14 +634,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>cumulative variance</t>
         </is>
       </c>
       <c r="B16">
-        <v>9.642657115098761E-30</v>
+        <v>8.099984927254551</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -652,14 +652,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>cumulative variance</t>
         </is>
       </c>
       <c r="B17">
-        <v>4.390730875576759E-30</v>
+        <v>8.668778498135378</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>3.886972065918754</v>
+        <v>9.000000000000007</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>6.258888085779226</v>
+        <v>9.000000000000007</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -706,14 +706,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B20">
-        <v>7.926890983744551</v>
+        <v>27.96110343189929</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -724,14 +724,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B21">
-        <v>9.471864346985567</v>
+        <v>18.77147371539325</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B22">
-        <v>10.69480638186787</v>
+        <v>13.45284542145642</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -760,14 +760,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B23">
-        <v>11.73425948658915</v>
+        <v>11.17926908085879</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -778,14 +778,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B24">
-        <v>12.69073927951113</v>
+        <v>10.21383746080657</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -796,14 +796,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B25">
-        <v>13.58619904770243</v>
+        <v>8.42130341463618</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -814,14 +814,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B26">
-        <v>14.3291223195077</v>
+        <v>6.319928565342506</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -832,14 +832,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B27">
-        <v>14.96079539675922</v>
+        <v>3.680238909606984</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -850,14 +850,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>percent variance</t>
         </is>
       </c>
       <c r="B28">
-        <v>15.41978748994874</v>
+        <v>6.014579218727985E-29</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -868,14 +868,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B29">
-        <v>15.6918962154906</v>
+        <v>27.96110343189929</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -886,14 +886,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B30">
-        <v>15.88675534096156</v>
+        <v>46.73257714729255</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -904,14 +904,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B31">
-        <v>16.00000000000001</v>
+        <v>60.18542256874896</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -922,14 +922,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B32">
-        <v>16.00000000000001</v>
+        <v>71.36469164960776</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -940,14 +940,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cumulative variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B33">
-        <v>16.00000000000001</v>
+        <v>81.57852911041434</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -958,14 +958,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B34">
-        <v>24.29357541199219</v>
+        <v>89.99983252505051</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -976,14 +976,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B35">
-        <v>14.82447512412794</v>
+        <v>96.319761090393</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -994,14 +994,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B36">
-        <v>10.42501811228327</v>
+        <v>100</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1012,520 +1012,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>percent variance</t>
+          <t>cumulative percent variance</t>
         </is>
       </c>
       <c r="B37">
-        <v>9.65608352025634</v>
+        <v>100</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D37" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>percent variance</t>
-        </is>
-      </c>
-      <c r="B38">
-        <v>7.643387718014368</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>percent variance</t>
-        </is>
-      </c>
-      <c r="B39">
-        <v>6.496581904508004</v>
-      </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>percent variance</t>
-        </is>
-      </c>
-      <c r="B40">
-        <v>5.977998705762346</v>
-      </c>
-      <c r="C40">
-        <v>7</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>percent variance</t>
-        </is>
-      </c>
-      <c r="B41">
-        <v>5.596623551195652</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>percent variance</t>
-        </is>
-      </c>
-      <c r="B42">
-        <v>4.64327044878292</v>
-      </c>
-      <c r="C42">
-        <v>9</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>percent variance</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>3.947956732822015</v>
-      </c>
-      <c r="C43">
-        <v>10</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>percent variance</t>
-        </is>
-      </c>
-      <c r="B44">
-        <v>2.868700582434484</v>
-      </c>
-      <c r="C44">
-        <v>11</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>percent variance</t>
-        </is>
-      </c>
-      <c r="B45">
-        <v>1.700679534636628</v>
-      </c>
-      <c r="C45">
-        <v>12</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>percent variance</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>1.217869534193472</v>
-      </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>percent variance</t>
-        </is>
-      </c>
-      <c r="B47">
-        <v>0.7077791189903537</v>
-      </c>
-      <c r="C47">
-        <v>14</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>percent variance</t>
-        </is>
-      </c>
-      <c r="B48">
-        <v>6.02666069693672E-29</v>
-      </c>
-      <c r="C48">
-        <v>15</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>percent variance</t>
-        </is>
-      </c>
-      <c r="B49">
-        <v>2.744206797235471E-29</v>
-      </c>
-      <c r="C49">
-        <v>16</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>24.29357541199219</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B51">
-        <v>39.11805053612013</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B52">
-        <v>49.5430686484034</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B53">
-        <v>59.19915216865974</v>
-      </c>
-      <c r="C53">
-        <v>4</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B54">
-        <v>66.84253988667412</v>
-      </c>
-      <c r="C54">
-        <v>5</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B55">
-        <v>73.33912179118212</v>
-      </c>
-      <c r="C55">
-        <v>6</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B56">
-        <v>79.31712049694447</v>
-      </c>
-      <c r="C56">
-        <v>7</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B57">
-        <v>84.91374404814012</v>
-      </c>
-      <c r="C57">
-        <v>8</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B58">
-        <v>89.55701449692303</v>
-      </c>
-      <c r="C58">
-        <v>9</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B59">
-        <v>93.50497122974505</v>
-      </c>
-      <c r="C59">
-        <v>10</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B60">
-        <v>96.37367181217954</v>
-      </c>
-      <c r="C60">
-        <v>11</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B61">
-        <v>98.07435134681617</v>
-      </c>
-      <c r="C61">
-        <v>12</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B62">
-        <v>99.29222088100964</v>
-      </c>
-      <c r="C62">
-        <v>13</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B63">
-        <v>100</v>
-      </c>
-      <c r="C63">
-        <v>14</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B64">
-        <v>100</v>
-      </c>
-      <c r="C64">
-        <v>15</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>pca</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>cumulative percent variance</t>
-        </is>
-      </c>
-      <c r="B65">
-        <v>100</v>
-      </c>
-      <c r="C65">
-        <v>16</v>
-      </c>
-      <c r="D65" t="inlineStr">
         <is>
           <t>pca</t>
         </is>
